--- a/medicine/Mort/Cimetière_d'York/Cimetière_d'York.xlsx
+++ b/medicine/Mort/Cimetière_d'York/Cimetière_d'York.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27York</t>
+          <t>Cimetière_d'York</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'York est le principal cimetière de la ville d'York en Angleterre. Fondé en 1837 il occupe aujourd'hui 97 000 m2 et est géré par The York Cemetery Trust avec l'aide de l'association des amis du cimetière d'York. Il est situé sur Cemetery Road dans le quartier de Fishergate. Il compte environ 28 000 tombes et plus de 17 000 monuments, dont six sont classés (Grade II).
 </t>
